--- a/excel/value_strategy.xlsx
+++ b/excel/value_strategy.xlsx
@@ -58,6 +58,9 @@
     <t>GM</t>
   </si>
   <si>
+    <t>WBA</t>
+  </si>
+  <si>
     <t>AIG</t>
   </si>
   <si>
@@ -121,81 +124,75 @@
     <t>MPC</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>WRK</t>
   </si>
   <si>
-    <t>L</t>
+    <t>LEN</t>
   </si>
   <si>
     <t>NUE</t>
   </si>
   <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
     <t>BEN</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
     <t>SBNY</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>UAL</t>
+    <t>TAP</t>
   </si>
   <si>
     <t>WDC</t>
   </si>
   <si>
-    <t>DHI</t>
-  </si>
-  <si>
     <t>FDX</t>
   </si>
   <si>
-    <t>TAP</t>
+    <t>IVZ</t>
   </si>
   <si>
     <t>CTRA</t>
   </si>
   <si>
-    <t>IVZ</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
     <t>IP</t>
   </si>
   <si>
+    <t>OGN</t>
+  </si>
+  <si>
     <t>PFG</t>
   </si>
   <si>
-    <t>OGN</t>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>MRO</t>
   </si>
   <si>
     <t>SIVB</t>
   </si>
   <si>
-    <t>MRO</t>
-  </si>
-  <si>
-    <t>WFC</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>ZION</t>
-  </si>
-  <si>
-    <t>HCA</t>
-  </si>
-  <si>
     <t>CINF</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>FOXA</t>
+  </si>
+  <si>
+    <t>AIZ</t>
   </si>
   <si>
     <t>EV/EDITBA</t>
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>35.9</v>
+        <v>35.91</v>
       </c>
       <c r="C2" s="3">
         <v>6.14</v>
@@ -653,31 +653,31 @@
         <v>0.09819639278557114</v>
       </c>
       <c r="E2" s="3">
-        <v>0.7618</v>
+        <v>0.7817</v>
       </c>
       <c r="F2" s="4">
         <v>0.08216432865731463</v>
       </c>
       <c r="G2" s="3">
-        <v>0.3378</v>
+        <v>0.3466</v>
       </c>
       <c r="H2" s="4">
         <v>0.03607214428857716</v>
       </c>
       <c r="I2" s="3">
-        <v>1.769990155004634</v>
+        <v>1.829899055653383</v>
       </c>
       <c r="J2" s="4">
-        <v>0.01603206412825652</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="K2" s="3">
-        <v>1.393774404123335</v>
+        <v>1.440949520926838</v>
       </c>
       <c r="L2" s="4">
-        <v>0.07414829659318638</v>
+        <v>0.07815631262525051</v>
       </c>
       <c r="M2" s="4">
-        <v>0.06132264529058117</v>
+        <v>0.0625250501002004</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -685,40 +685,40 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>64.55</v>
+        <v>36.61</v>
       </c>
       <c r="C3" s="3">
-        <v>3.82</v>
+        <v>-10.67</v>
       </c>
       <c r="D3" s="4">
-        <v>0.05210420841683366</v>
+        <v>0.03206412825651303</v>
       </c>
       <c r="E3" s="3">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="F3" s="4">
-        <v>0.1412825651302605</v>
+        <v>0.1903807615230461</v>
       </c>
       <c r="G3" s="3">
-        <v>0.8006</v>
+        <v>0.2389</v>
       </c>
       <c r="H3" s="4">
-        <v>0.1162324649298597</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="I3" s="3">
-        <v>2.231364280276162</v>
+        <v>-9.772700128064033</v>
       </c>
       <c r="J3" s="4">
-        <v>0.01803607214428858</v>
+        <v>0.01202404809619239</v>
       </c>
       <c r="K3" s="3">
-        <v>0.8006152301571142</v>
+        <v>1.413371983504558</v>
       </c>
       <c r="L3" s="4">
-        <v>0.0280561122244489</v>
+        <v>0.07414829659318638</v>
       </c>
       <c r="M3" s="4">
-        <v>0.07114228456913828</v>
+        <v>0.06452905811623247</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -726,40 +726,40 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>12.585</v>
+        <v>64.55</v>
       </c>
       <c r="C4" s="3">
-        <v>5.64</v>
+        <v>3.82</v>
       </c>
       <c r="D4" s="4">
-        <v>0.08817635270541083</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="E4" s="3">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="F4" s="4">
-        <v>0.1222444889779559</v>
+        <v>0.1342685370741483</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3189</v>
+        <v>0.8137</v>
       </c>
       <c r="H4" s="4">
-        <v>0.03206412825651303</v>
+        <v>0.1122244488977956</v>
       </c>
       <c r="I4" s="3">
-        <v>3.615244337570204</v>
+        <v>2.267903704828108</v>
       </c>
       <c r="J4" s="4">
-        <v>0.04208416833667335</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="K4" s="3">
-        <v>1.611945996924699</v>
+        <v>0.8137256039567002</v>
       </c>
       <c r="L4" s="4">
-        <v>0.08817635270541083</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="M4" s="4">
-        <v>0.07454909819639279</v>
+        <v>0.06933867735470942</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -767,40 +767,40 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>32.77</v>
+        <v>12.58</v>
       </c>
       <c r="C5" s="3">
-        <v>5.18</v>
+        <v>5.64</v>
       </c>
       <c r="D5" s="4">
-        <v>0.07414829659318638</v>
+        <v>0.08817635270541083</v>
       </c>
       <c r="E5" s="3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F5" s="4">
-        <v>0.1282565130260521</v>
+        <v>0.1202404809619238</v>
       </c>
       <c r="G5" s="3">
-        <v>0.8005</v>
+        <v>0.3275</v>
       </c>
       <c r="H5" s="4">
-        <v>0.1142284569138277</v>
+        <v>0.03206412825651303</v>
       </c>
       <c r="I5" s="3">
-        <v>3.071480466211895</v>
+        <v>3.74366899684698</v>
       </c>
       <c r="J5" s="4">
-        <v>0.03006012024048096</v>
+        <v>0.04809619238476955</v>
       </c>
       <c r="K5" s="3">
-        <v>0.9438791265640354</v>
+        <v>1.6692073037958</v>
       </c>
       <c r="L5" s="4">
-        <v>0.0340681362725451</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="M5" s="4">
-        <v>0.07615230460921844</v>
+        <v>0.07575150300601202</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -808,37 +808,37 @@
         <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>96.98</v>
+        <v>32.8</v>
       </c>
       <c r="C6" s="3">
-        <v>4.78</v>
+        <v>5.18</v>
       </c>
       <c r="D6" s="4">
-        <v>0.06613226452905811</v>
+        <v>0.07414829659318638</v>
       </c>
       <c r="E6" s="3">
-        <v>0.7053</v>
+        <v>1.2</v>
       </c>
       <c r="F6" s="4">
-        <v>0.08016032064128258</v>
+        <v>0.12625250501002</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0.821</v>
       </c>
       <c r="H6" s="4">
-        <v>0.1523046092184369</v>
+        <v>0.1182364729458918</v>
       </c>
       <c r="I6" s="3">
-        <v>3.317491149264774</v>
+        <v>3.150236375612876</v>
       </c>
       <c r="J6" s="4">
+        <v>0.03006012024048096</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.9680811554536521</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.0340681362725451</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.118937951807605</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.0501002004008016</v>
       </c>
       <c r="M6" s="4">
         <v>0.07655310621242485</v>
@@ -849,40 +849,40 @@
         <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>47.355</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="C7" s="3">
-        <v>6.51</v>
+        <v>4.79</v>
       </c>
       <c r="D7" s="4">
-        <v>0.1062124248496994</v>
+        <v>0.06613226452905811</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5043</v>
+        <v>0.7285</v>
       </c>
       <c r="F7" s="4">
-        <v>0.07615230460921844</v>
+        <v>0.08016032064128258</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="H7" s="4">
-        <v>0.1523046092184369</v>
+        <v>0.1543086172344689</v>
       </c>
       <c r="I7" s="3">
-        <v>3.817363886677909</v>
+        <v>3.426568055488763</v>
       </c>
       <c r="J7" s="4">
+        <v>0.04008016032064129</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.1557278887052</v>
+      </c>
+      <c r="L7" s="4">
         <v>0.05210420841683366</v>
       </c>
-      <c r="K7" s="3">
-        <v>1.037429353375878</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.04008016032064129</v>
-      </c>
       <c r="M7" s="4">
-        <v>0.08537074148296595</v>
+        <v>0.07855711422845692</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -890,40 +890,40 @@
         <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>212.42</v>
+        <v>47.31</v>
       </c>
       <c r="C8" s="3">
-        <v>-14.91</v>
+        <v>6.51</v>
       </c>
       <c r="D8" s="4">
-        <v>0.03006012024048096</v>
+        <v>0.1062124248496994</v>
       </c>
       <c r="E8" s="3">
-        <v>-6.88</v>
+        <v>0.5103</v>
       </c>
       <c r="F8" s="4">
-        <v>0.0591182364729459</v>
+        <v>0.07615230460921844</v>
       </c>
       <c r="G8" s="3">
-        <v>1.98</v>
+        <v>1.02</v>
       </c>
       <c r="H8" s="4">
-        <v>0.3507014028056112</v>
+        <v>0.1523046092184369</v>
       </c>
       <c r="I8" s="3">
-        <v>-30.85188301479955</v>
+        <v>3.863090598482294</v>
       </c>
       <c r="J8" s="4">
-        <v>0.006012024048096193</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="K8" s="3">
-        <v>-195.8232479583829</v>
+        <v>1.04985631461601</v>
       </c>
       <c r="L8" s="4">
-        <v>0.002004008016032064</v>
+        <v>0.04008016032064129</v>
       </c>
       <c r="M8" s="4">
-        <v>0.08957915831663327</v>
+        <v>0.08537074148296595</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -931,40 +931,40 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>31.945</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3">
-        <v>-2.79</v>
+        <v>-14.95</v>
       </c>
       <c r="D9" s="4">
-        <v>0.04408817635270541</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="E9" s="3">
-        <v>2.38</v>
+        <v>-7.15</v>
       </c>
       <c r="F9" s="4">
-        <v>0.4048096192384769</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="G9" s="3">
-        <v>0.2743</v>
+        <v>2.06</v>
       </c>
       <c r="H9" s="4">
-        <v>0.02004008016032064</v>
+        <v>0.3587174348697395</v>
       </c>
       <c r="I9" s="3">
-        <v>-3.092524256891496</v>
+        <v>-31.74293349512926</v>
       </c>
       <c r="J9" s="4">
-        <v>0.01402805611222445</v>
+        <v>0.006012024048096193</v>
       </c>
       <c r="K9" s="3">
-        <v>0.2743082851940485</v>
+        <v>-201.4789286527943</v>
       </c>
       <c r="L9" s="4">
-        <v>0.004008016032064129</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="M9" s="4">
-        <v>0.09739478957915831</v>
+        <v>0.0905811623246493</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -972,40 +972,40 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>32.165</v>
+        <v>31.46</v>
       </c>
       <c r="C10" s="3">
-        <v>4.08</v>
+        <v>-2.75</v>
       </c>
       <c r="D10" s="4">
-        <v>0.05410821643286574</v>
+        <v>0.04408817635270541</v>
       </c>
       <c r="E10" s="3">
-        <v>1.43</v>
+        <v>2.44</v>
       </c>
       <c r="F10" s="4">
-        <v>0.1783567134268537</v>
+        <v>0.405811623246493</v>
       </c>
       <c r="G10" s="3">
-        <v>0.238</v>
+        <v>0.2809</v>
       </c>
       <c r="H10" s="4">
+        <v>0.02004008016032064</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-3.166959211730205</v>
+      </c>
+      <c r="J10" s="4">
         <v>0.01603206412825652</v>
       </c>
-      <c r="I10" s="3">
-        <v>4.011137422275641</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.06012024048096192</v>
-      </c>
       <c r="K10" s="3">
-        <v>2.967924606521739</v>
+        <v>0.2809106989907398</v>
       </c>
       <c r="L10" s="4">
-        <v>0.2104208416833667</v>
+        <v>0.004008016032064129</v>
       </c>
       <c r="M10" s="4">
-        <v>0.1038076152304609</v>
+        <v>0.09799599198396794</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1013,40 +1013,40 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>66.02</v>
+        <v>32.2</v>
       </c>
       <c r="C11" s="3">
-        <v>5.92</v>
+        <v>4.09</v>
       </c>
       <c r="D11" s="4">
-        <v>0.09619238476953909</v>
+        <v>0.05410821643286574</v>
       </c>
       <c r="E11" s="3">
-        <v>0.9571</v>
+        <v>1.45</v>
       </c>
       <c r="F11" s="4">
-        <v>0.09819639278557114</v>
+        <v>0.1723446893787575</v>
       </c>
       <c r="G11" s="3">
-        <v>0.3538</v>
+        <v>0.2414</v>
       </c>
       <c r="H11" s="4">
-        <v>0.03807615230460922</v>
+        <v>0.01603206412825652</v>
       </c>
       <c r="I11" s="3">
-        <v>3.819906151340145</v>
+        <v>4.038827831463675</v>
       </c>
       <c r="J11" s="4">
-        <v>0.05410821643286574</v>
+        <v>0.06012024048096192</v>
       </c>
       <c r="K11" s="3">
-        <v>3.291543478371826</v>
+        <v>2.988413320355731</v>
       </c>
       <c r="L11" s="4">
-        <v>0.2424849699398798</v>
+        <v>0.2044088176352706</v>
       </c>
       <c r="M11" s="4">
-        <v>0.105811623246493</v>
+        <v>0.1014028056112225</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1054,40 +1054,40 @@
         <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>78.505</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C12" s="3">
-        <v>-19.72</v>
+        <v>5.93</v>
       </c>
       <c r="D12" s="4">
-        <v>0.02204408817635271</v>
+        <v>0.09619238476953909</v>
       </c>
       <c r="E12" s="3">
-        <v>-11.28</v>
+        <v>0.9825</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0501002004008016</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1074</v>
+        <v>0.3632</v>
       </c>
       <c r="H12" s="4">
-        <v>0.004008016032064129</v>
+        <v>0.03807615230460922</v>
       </c>
       <c r="I12" s="3">
-        <v>8.49911008592535</v>
+        <v>3.892787100992152</v>
       </c>
       <c r="J12" s="4">
-        <v>0.2304609218436874</v>
+        <v>0.05410821643286574</v>
       </c>
       <c r="K12" s="3">
-        <v>3.354259803744054</v>
+        <v>3.354343663774404</v>
       </c>
       <c r="L12" s="4">
-        <v>0.2464929859719439</v>
+        <v>0.2424849699398798</v>
       </c>
       <c r="M12" s="4">
-        <v>0.1106212424849699</v>
+        <v>0.105811623246493</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1095,40 +1095,40 @@
         <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>48.295</v>
+        <v>78.64</v>
       </c>
       <c r="C13" s="3">
-        <v>4.91</v>
+        <v>-19.76</v>
       </c>
       <c r="D13" s="4">
-        <v>0.06813627254509019</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="E13" s="3">
-        <v>1.33</v>
+        <v>-11.57</v>
       </c>
       <c r="F13" s="4">
-        <v>0.155310621242485</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="G13" s="3">
-        <v>0.7045</v>
+        <v>0.1102</v>
       </c>
       <c r="H13" s="4">
-        <v>0.09418837675350701</v>
+        <v>0.004008016032064129</v>
       </c>
       <c r="I13" s="3">
-        <v>3.997038100437232</v>
+        <v>8.704985197511665</v>
       </c>
       <c r="J13" s="4">
-        <v>0.05811623246492986</v>
+        <v>0.2364729458917836</v>
       </c>
       <c r="K13" s="3">
-        <v>2.79687472950446</v>
+        <v>3.435510499923278</v>
       </c>
       <c r="L13" s="4">
-        <v>0.1903807615230461</v>
+        <v>0.2464929859719439</v>
       </c>
       <c r="M13" s="4">
-        <v>0.1132264529058116</v>
+        <v>0.1114228456913828</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1136,40 +1136,40 @@
         <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>33.345</v>
+        <v>48.31</v>
       </c>
       <c r="C14" s="3">
-        <v>7.01</v>
+        <v>4.91</v>
       </c>
       <c r="D14" s="4">
-        <v>0.1142284569138277</v>
+        <v>0.06813627254509019</v>
       </c>
       <c r="E14" s="3">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="F14" s="4">
-        <v>0.1412825651302605</v>
+        <v>0.1482965931863728</v>
       </c>
       <c r="G14" s="3">
-        <v>1.16</v>
+        <v>0.7139</v>
       </c>
       <c r="H14" s="4">
-        <v>0.1893787575150301</v>
+        <v>0.09418837675350701</v>
       </c>
       <c r="I14" s="3">
-        <v>3.178400553147766</v>
+        <v>4.043020832860275</v>
       </c>
       <c r="J14" s="4">
-        <v>0.03206412825651303</v>
+        <v>0.06212424849699399</v>
       </c>
       <c r="K14" s="3">
-        <v>1.621285997541365</v>
+        <v>2.829050540461454</v>
       </c>
       <c r="L14" s="4">
-        <v>0.09018036072144289</v>
+        <v>0.186372745490982</v>
       </c>
       <c r="M14" s="4">
-        <v>0.1134268537074148</v>
+        <v>0.1118236472945892</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1177,40 +1177,40 @@
         <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>28.145</v>
+        <v>33.34</v>
       </c>
       <c r="C15" s="3">
-        <v>9.109999999999999</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4">
-        <v>0.1412825651302605</v>
+        <v>0.1142284569138277</v>
       </c>
       <c r="E15" s="3">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="F15" s="4">
-        <v>0.1673346693386774</v>
+        <v>0.1422845691382766</v>
       </c>
       <c r="G15" s="3">
-        <v>0.414</v>
+        <v>1.21</v>
       </c>
       <c r="H15" s="4">
-        <v>0.04809619238476955</v>
+        <v>0.1983967935871744</v>
       </c>
       <c r="I15" s="3">
-        <v>4.32278621331998</v>
+        <v>3.267722708994832</v>
       </c>
       <c r="J15" s="4">
-        <v>0.06613226452905811</v>
+        <v>0.0340681362725451</v>
       </c>
       <c r="K15" s="3">
-        <v>2.596271900150376</v>
+        <v>1.666848776090982</v>
       </c>
       <c r="L15" s="4">
-        <v>0.1683366733466934</v>
+        <v>0.08817635270541083</v>
       </c>
       <c r="M15" s="4">
-        <v>0.1182364729458918</v>
+        <v>0.1154308617234469</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1218,40 +1218,40 @@
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>28.375</v>
+        <v>28.17</v>
       </c>
       <c r="C16" s="3">
-        <v>9.300000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D16" s="4">
-        <v>0.1503006012024048</v>
+        <v>0.1402805611222445</v>
       </c>
       <c r="E16" s="3">
-        <v>-9.16</v>
+        <v>1.4</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0561122244488978</v>
+        <v>0.1623246492985972</v>
       </c>
       <c r="G16" s="3">
-        <v>0.4243</v>
+        <v>0.4217</v>
       </c>
       <c r="H16" s="4">
-        <v>0.05210420841683366</v>
+        <v>0.04809619238476955</v>
       </c>
       <c r="I16" s="3">
-        <v>6.314930103870026</v>
+        <v>4.381540977466199</v>
       </c>
       <c r="J16" s="4">
-        <v>0.1402805611222445</v>
+        <v>0.06813627254509019</v>
       </c>
       <c r="K16" s="3">
-        <v>2.80447402586137</v>
+        <v>2.631560099849624</v>
       </c>
       <c r="L16" s="4">
-        <v>0.1923847695390782</v>
+        <v>0.1643286573146293</v>
       </c>
       <c r="M16" s="4">
-        <v>0.1182364729458918</v>
+        <v>0.1166332665330661</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1259,40 +1259,40 @@
         <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>46.775</v>
+        <v>28.36</v>
       </c>
       <c r="C17" s="3">
-        <v>4.58</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>0.06212424849699399</v>
+        <v>0.1482965931863728</v>
       </c>
       <c r="E17" s="3">
-        <v>1.31</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="F17" s="4">
-        <v>0.1492985971943888</v>
+        <v>0.05410821643286574</v>
       </c>
       <c r="G17" s="3">
-        <v>0.8232</v>
+        <v>0.4422</v>
       </c>
       <c r="H17" s="4">
-        <v>0.1222444889779559</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="I17" s="3">
-        <v>3.046612512073354</v>
+        <v>6.521112591274187</v>
       </c>
       <c r="J17" s="4">
-        <v>0.0280561122244489</v>
+        <v>0.1422845691382766</v>
       </c>
       <c r="K17" s="3">
-        <v>3.1457711268531</v>
+        <v>2.896040111471423</v>
       </c>
       <c r="L17" s="4">
-        <v>0.2324649298597194</v>
+        <v>0.1943887775551102</v>
       </c>
       <c r="M17" s="4">
-        <v>0.1188376753507014</v>
+        <v>0.1182364729458918</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1300,40 +1300,40 @@
         <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>9.195</v>
+        <v>46.73</v>
       </c>
       <c r="C18" s="3">
-        <v>-1.48</v>
+        <v>4.57</v>
       </c>
       <c r="D18" s="4">
-        <v>0.0501002004008016</v>
+        <v>0.06212424849699399</v>
       </c>
       <c r="E18" s="3">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="F18" s="4">
-        <v>0.1322645290581162</v>
+        <v>0.155310621242485</v>
       </c>
       <c r="G18" s="3">
-        <v>1.04</v>
+        <v>0.8607</v>
       </c>
       <c r="H18" s="4">
-        <v>0.1633266533066133</v>
+        <v>0.12625250501002</v>
       </c>
       <c r="I18" s="3">
-        <v>-14.33581299650892</v>
+        <v>3.159935834856099</v>
       </c>
       <c r="J18" s="4">
-        <v>0.01002004008016032</v>
+        <v>0.03206412825651303</v>
       </c>
       <c r="K18" s="3">
-        <v>3.842957877196631</v>
+        <v>3.262782803066038</v>
       </c>
       <c r="L18" s="4">
-        <v>0.2765531062124248</v>
+        <v>0.2384769539078156</v>
       </c>
       <c r="M18" s="4">
-        <v>0.1264529058116232</v>
+        <v>0.1228456913827655</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1341,40 +1341,40 @@
         <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>141.33</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C19" s="3">
-        <v>-123.97</v>
+        <v>-1.48</v>
       </c>
       <c r="D19" s="4">
-        <v>0.01202404809619239</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="E19" s="3">
-        <v>2.37</v>
+        <v>1.22</v>
       </c>
       <c r="F19" s="4">
-        <v>0.4018036072144289</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="G19" s="3">
-        <v>0.7278</v>
+        <v>1.06</v>
       </c>
       <c r="H19" s="4">
-        <v>0.09819639278557114</v>
+        <v>0.1633266533066133</v>
       </c>
       <c r="I19" s="3">
-        <v>5.47795761058405</v>
+        <v>-14.44371706982157</v>
       </c>
       <c r="J19" s="4">
-        <v>0.1062124248496994</v>
+        <v>0.01002004008016032</v>
       </c>
       <c r="K19" s="3">
-        <v>0.7277907287104144</v>
+        <v>3.871883394613705</v>
       </c>
       <c r="L19" s="4">
-        <v>0.02004008016032064</v>
+        <v>0.2745490981963928</v>
       </c>
       <c r="M19" s="4">
-        <v>0.1276553106212425</v>
+        <v>0.1254509018036072</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1382,40 +1382,40 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>105.665</v>
+        <v>141.37</v>
       </c>
       <c r="C20" s="3">
-        <v>4.72</v>
+        <v>-124.01</v>
       </c>
       <c r="D20" s="4">
-        <v>0.06412825651302606</v>
+        <v>0.01002004008016032</v>
       </c>
       <c r="E20" s="3">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="F20" s="4">
-        <v>0.2414829659318637</v>
+        <v>0.3987975951903808</v>
       </c>
       <c r="G20" s="3">
-        <v>0.3</v>
+        <v>0.7383999999999999</v>
       </c>
       <c r="H20" s="4">
-        <v>0.02605210420841683</v>
+        <v>0.1002004008016032</v>
       </c>
       <c r="I20" s="3">
-        <v>3.922038001691517</v>
+        <v>5.55776422709754</v>
       </c>
       <c r="J20" s="4">
-        <v>0.0561122244488978</v>
+        <v>0.1062124248496994</v>
       </c>
       <c r="K20" s="3">
-        <v>3.432401479412249</v>
+        <v>0.7383936796124153</v>
       </c>
       <c r="L20" s="4">
-        <v>0.250501002004008</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="M20" s="4">
-        <v>0.1276553106212425</v>
+        <v>0.1270541082164329</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1423,40 +1423,40 @@
         <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>15.635</v>
+        <v>105.7</v>
       </c>
       <c r="C21" s="3">
-        <v>5.19</v>
+        <v>4.72</v>
       </c>
       <c r="D21" s="4">
-        <v>0.07615230460921844</v>
+        <v>0.06412825651302606</v>
       </c>
       <c r="E21" s="3">
-        <v>0.2584</v>
+        <v>1.77</v>
       </c>
       <c r="F21" s="4">
-        <v>0.07414829659318638</v>
+        <v>0.2454909819639279</v>
       </c>
       <c r="G21" s="3">
-        <v>0.257</v>
+        <v>0.3078</v>
       </c>
       <c r="H21" s="4">
-        <v>0.01803607214428858</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="I21" s="3">
-        <v>7.458971049166614</v>
+        <v>4.001392363989475</v>
       </c>
       <c r="J21" s="4">
-        <v>0.1763527054108217</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="K21" s="3">
-        <v>4.105678146867931</v>
+        <v>3.50184905499205</v>
       </c>
       <c r="L21" s="4">
-        <v>0.3026052104208417</v>
+        <v>0.248496993987976</v>
       </c>
       <c r="M21" s="4">
-        <v>0.1294589178356713</v>
+        <v>0.1280561122244489</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1464,40 +1464,40 @@
         <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>127.36</v>
+        <v>15.64</v>
       </c>
       <c r="C22" s="3">
-        <v>5.45</v>
+        <v>5.2</v>
       </c>
       <c r="D22" s="4">
-        <v>0.08216432865731463</v>
+        <v>0.07615230460921844</v>
       </c>
       <c r="E22" s="3">
-        <v>2.23</v>
+        <v>0.269</v>
       </c>
       <c r="F22" s="4">
-        <v>0.375751503006012</v>
+        <v>0.07414829659318638</v>
       </c>
       <c r="G22" s="3">
-        <v>0.2862</v>
+        <v>0.2676</v>
       </c>
       <c r="H22" s="4">
-        <v>0.02204408817635271</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="I22" s="3">
-        <v>3.656601527322227</v>
+        <v>7.517956016477301</v>
       </c>
       <c r="J22" s="4">
-        <v>0.04609218436873747</v>
+        <v>0.1783567134268537</v>
       </c>
       <c r="K22" s="3">
-        <v>2.481541076983987</v>
+        <v>4.138145532742592</v>
       </c>
       <c r="L22" s="4">
-        <v>0.1603206412825652</v>
+        <v>0.2965931863727455</v>
       </c>
       <c r="M22" s="4">
-        <v>0.1372745490981964</v>
+        <v>0.1286573146292585</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1505,40 +1505,40 @@
         <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>116.765</v>
+        <v>127.56</v>
       </c>
       <c r="C23" s="3">
-        <v>5.39</v>
+        <v>5.46</v>
       </c>
       <c r="D23" s="4">
-        <v>0.08016032064128258</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="E23" s="3">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="F23" s="4">
-        <v>0.3326653306613227</v>
+        <v>0.3697394789579158</v>
       </c>
       <c r="G23" s="3">
-        <v>0.3122</v>
+        <v>0.2884</v>
       </c>
       <c r="H23" s="4">
-        <v>0.03006012024048096</v>
+        <v>0.02204408817635271</v>
       </c>
       <c r="I23" s="3">
-        <v>3.38055684067025</v>
+        <v>3.680841987554288</v>
       </c>
       <c r="J23" s="4">
-        <v>0.04008016032064129</v>
+        <v>0.04408817635270541</v>
       </c>
       <c r="K23" s="3">
-        <v>2.973467294385756</v>
+        <v>2.497991788755939</v>
       </c>
       <c r="L23" s="4">
-        <v>0.2124248496993988</v>
+        <v>0.1583166332665331</v>
       </c>
       <c r="M23" s="4">
-        <v>0.1390781563126253</v>
+        <v>0.1352705410821643</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1546,40 +1546,40 @@
         <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>36.795</v>
+        <v>116.82</v>
       </c>
       <c r="C24" s="3">
-        <v>10.19</v>
+        <v>5.39</v>
       </c>
       <c r="D24" s="4">
-        <v>0.1693386773547094</v>
+        <v>0.08016032064128258</v>
       </c>
       <c r="E24" s="3">
-        <v>0.79</v>
+        <v>2.08</v>
       </c>
       <c r="F24" s="4">
-        <v>0.08617234468937877</v>
+        <v>0.3266533066132265</v>
       </c>
       <c r="G24" s="3">
-        <v>0.4237</v>
+        <v>0.3151</v>
       </c>
       <c r="H24" s="4">
-        <v>0.0501002004008016</v>
+        <v>0.03006012024048096</v>
       </c>
       <c r="I24" s="3">
-        <v>5.011637356328807</v>
+        <v>3.405296068138893</v>
       </c>
       <c r="J24" s="4">
-        <v>0.09418837675350701</v>
+        <v>0.03607214428857716</v>
       </c>
       <c r="K24" s="3">
-        <v>4.112317249732634</v>
+        <v>2.995227402922133</v>
       </c>
       <c r="L24" s="4">
-        <v>0.3046092184368738</v>
+        <v>0.2084168336673347</v>
       </c>
       <c r="M24" s="4">
-        <v>0.1408817635270541</v>
+        <v>0.1362725450901804</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1587,40 +1587,40 @@
         <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>60.475</v>
+        <v>60.47</v>
       </c>
       <c r="C25" s="3">
         <v>15.08</v>
       </c>
       <c r="D25" s="4">
-        <v>0.3226452905811623</v>
+        <v>0.3176352705410821</v>
       </c>
       <c r="E25" s="3">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F25" s="4">
-        <v>0.1002004008016032</v>
+        <v>0.1012024048096192</v>
       </c>
       <c r="G25" s="3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H25" s="4">
-        <v>0.1583166332665331</v>
+        <v>0.1593186372745491</v>
       </c>
       <c r="I25" s="3">
-        <v>4.888058327190542</v>
+        <v>4.992077132823366</v>
       </c>
       <c r="J25" s="4">
         <v>0.08617234468937877</v>
       </c>
       <c r="K25" s="3">
-        <v>1.02673500942156</v>
+        <v>1.048584124598306</v>
       </c>
       <c r="L25" s="4">
         <v>0.03807615230460922</v>
       </c>
       <c r="M25" s="4">
-        <v>0.1410821643286573</v>
+        <v>0.1404809619238477</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1628,40 +1628,40 @@
         <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>143.89</v>
+        <v>36.73</v>
       </c>
       <c r="C26" s="3">
-        <v>4.53</v>
+        <v>10.17</v>
       </c>
       <c r="D26" s="4">
-        <v>0.06012024048096192</v>
+        <v>0.1663326653306614</v>
       </c>
       <c r="E26" s="3">
-        <v>1.99</v>
+        <v>0.8199</v>
       </c>
       <c r="F26" s="4">
-        <v>0.3186372745490982</v>
+        <v>0.08617234468937877</v>
       </c>
       <c r="G26" s="3">
-        <v>0.8148</v>
+        <v>0.4398</v>
       </c>
       <c r="H26" s="4">
-        <v>0.1182364729458918</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="I26" s="3">
-        <v>2.973259899278223</v>
+        <v>5.115012172647915</v>
       </c>
       <c r="J26" s="4">
-        <v>0.02404809619238477</v>
+        <v>0.09418837675350701</v>
       </c>
       <c r="K26" s="3">
-        <v>2.759904875829511</v>
+        <v>4.197141831024449</v>
       </c>
       <c r="L26" s="4">
-        <v>0.186372745490982</v>
+        <v>0.3066132264529058</v>
       </c>
       <c r="M26" s="4">
-        <v>0.1414829659318637</v>
+        <v>0.1406813627254509</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1669,40 +1669,40 @@
         <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>36.645</v>
+        <v>95.66</v>
       </c>
       <c r="C27" s="3">
-        <v>7.31</v>
+        <v>6.33</v>
       </c>
       <c r="D27" s="4">
-        <v>0.1182364729458918</v>
+        <v>0.1002004008016032</v>
       </c>
       <c r="E27" s="3">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="F27" s="4">
-        <v>0.1342685370741483</v>
+        <v>0.1232464929859719</v>
       </c>
       <c r="G27" s="3">
-        <v>0.2287</v>
+        <v>0.8535</v>
       </c>
       <c r="H27" s="4">
-        <v>0.01402805611222445</v>
+        <v>0.1222444889779559</v>
       </c>
       <c r="I27" s="3">
-        <v>11.53325796267133</v>
+        <v>4.511629442503676</v>
       </c>
       <c r="J27" s="4">
-        <v>0.3787575150300602</v>
+        <v>0.07414829659318638</v>
       </c>
       <c r="K27" s="3">
-        <v>1.399120553102668</v>
+        <v>4.203049098087094</v>
       </c>
       <c r="L27" s="4">
-        <v>0.07615230460921844</v>
+        <v>0.3086172344689379</v>
       </c>
       <c r="M27" s="4">
-        <v>0.1442885771543086</v>
+        <v>0.1456913827655311</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1710,40 +1710,40 @@
         <v>39</v>
       </c>
       <c r="B28" s="2">
-        <v>95.595</v>
+        <v>143.93</v>
       </c>
       <c r="C28" s="3">
-        <v>6.33</v>
+        <v>4.53</v>
       </c>
       <c r="D28" s="4">
-        <v>0.1002004008016032</v>
+        <v>0.06012024048096192</v>
       </c>
       <c r="E28" s="3">
-        <v>1.16</v>
+        <v>2.09</v>
       </c>
       <c r="F28" s="4">
-        <v>0.125250501002004</v>
+        <v>0.3286573146292585</v>
       </c>
       <c r="G28" s="3">
-        <v>0.8369</v>
+        <v>0.8557</v>
       </c>
       <c r="H28" s="4">
-        <v>0.12625250501002</v>
+        <v>0.124248496993988</v>
       </c>
       <c r="I28" s="3">
-        <v>4.431438549466902</v>
+        <v>3.10977126686785</v>
       </c>
       <c r="J28" s="4">
-        <v>0.07615230460921844</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="K28" s="3">
-        <v>4.12834299357467</v>
+        <v>2.886620468068261</v>
       </c>
       <c r="L28" s="4">
-        <v>0.3066132264529058</v>
+        <v>0.1923847695390782</v>
       </c>
       <c r="M28" s="4">
-        <v>0.1468937875751503</v>
+        <v>0.1466933867735471</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1751,40 +1751,40 @@
         <v>40</v>
       </c>
       <c r="B29" s="2">
-        <v>28.35</v>
+        <v>28.38</v>
       </c>
       <c r="C29" s="3">
-        <v>8.41</v>
+        <v>8.42</v>
       </c>
       <c r="D29" s="4">
-        <v>0.1282565130260521</v>
+        <v>0.12625250501002</v>
       </c>
       <c r="E29" s="3">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="F29" s="4">
-        <v>0.1302605210420842</v>
+        <v>0.1322645290581162</v>
       </c>
       <c r="G29" s="3">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="H29" s="4">
-        <v>0.2835671342685371</v>
+        <v>0.2905811623246493</v>
       </c>
       <c r="I29" s="3">
-        <v>5.858904473071189</v>
+        <v>6.103626311964219</v>
       </c>
       <c r="J29" s="4">
-        <v>0.1142284569138277</v>
+        <v>0.1182364729458918</v>
       </c>
       <c r="K29" s="3">
-        <v>1.476471717680486</v>
+        <v>1.538142781867493</v>
       </c>
       <c r="L29" s="4">
         <v>0.08216432865731463</v>
       </c>
       <c r="M29" s="4">
-        <v>0.1476953907815631</v>
+        <v>0.1498997995991984</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1792,37 +1792,37 @@
         <v>41</v>
       </c>
       <c r="B30" s="2">
-        <v>116.3</v>
+        <v>19.2525</v>
       </c>
       <c r="C30" s="3">
-        <v>5.69</v>
+        <v>7.29</v>
       </c>
       <c r="D30" s="4">
-        <v>0.09218436873747494</v>
+        <v>0.1182364729458918</v>
       </c>
       <c r="E30" s="3">
-        <v>0.8739</v>
+        <v>1.14</v>
       </c>
       <c r="F30" s="4">
-        <v>0.08817635270541083</v>
+        <v>0.1162324649298597</v>
       </c>
       <c r="G30" s="3">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>0.3927855711422846</v>
+        <v>0.1482965931863728</v>
       </c>
       <c r="I30" s="3">
-        <v>3.808447498461437</v>
+        <v>6.02893492311121</v>
       </c>
       <c r="J30" s="4">
-        <v>0.0501002004008016</v>
+        <v>0.1162324649298597</v>
       </c>
       <c r="K30" s="3">
-        <v>2.16386543046025</v>
+        <v>3.519853099993494</v>
       </c>
       <c r="L30" s="4">
-        <v>0.12625250501002</v>
+        <v>0.250501002004008</v>
       </c>
       <c r="M30" s="4">
         <v>0.1498997995991984</v>
@@ -1833,40 +1833,40 @@
         <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>19.56</v>
+        <v>93.58</v>
       </c>
       <c r="C31" s="3">
-        <v>7.41</v>
+        <v>5.67</v>
       </c>
       <c r="D31" s="4">
-        <v>0.1222444889779559</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="E31" s="3">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="F31" s="4">
-        <v>0.1162324649298597</v>
+        <v>0.2104208416833667</v>
       </c>
       <c r="G31" s="3">
-        <v>0.9867</v>
+        <v>0.963</v>
       </c>
       <c r="H31" s="4">
-        <v>0.1462925851703407</v>
+        <v>0.1402805611222445</v>
       </c>
       <c r="I31" s="3">
-        <v>5.978107198573658</v>
+        <v>4.47661942366502</v>
       </c>
       <c r="J31" s="4">
-        <v>0.1202404809619238</v>
+        <v>0.07214428857715431</v>
       </c>
       <c r="K31" s="3">
-        <v>3.49017851798842</v>
+        <v>3.261031074151998</v>
       </c>
       <c r="L31" s="4">
-        <v>0.2525050100200401</v>
+        <v>0.2364729458917836</v>
       </c>
       <c r="M31" s="4">
-        <v>0.151503006012024</v>
+        <v>0.1498997995991984</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1874,34 +1874,34 @@
         <v>43</v>
       </c>
       <c r="B32" s="2">
-        <v>42.255</v>
+        <v>42.24</v>
       </c>
       <c r="C32" s="3">
         <v>-18.29</v>
       </c>
       <c r="D32" s="4">
-        <v>0.02404809619238477</v>
+        <v>0.02204408817635271</v>
       </c>
       <c r="E32" s="3">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="F32" s="4">
         <v>0.4759519038076152</v>
       </c>
       <c r="G32" s="3">
-        <v>0.3307</v>
+        <v>0.3387</v>
       </c>
       <c r="H32" s="4">
         <v>0.0340681362725451</v>
       </c>
       <c r="I32" s="3">
-        <v>8.296874441093308</v>
+        <v>8.399527503612944</v>
       </c>
       <c r="J32" s="4">
-        <v>0.218436873747495</v>
+        <v>0.2204408817635271</v>
       </c>
       <c r="K32" s="3">
-        <v>0.6481201400348492</v>
+        <v>0.6561390051782954</v>
       </c>
       <c r="L32" s="4">
         <v>0.01202404809619239</v>
@@ -1915,40 +1915,40 @@
         <v>44</v>
       </c>
       <c r="B33" s="2">
-        <v>37.07</v>
+        <v>116.3</v>
       </c>
       <c r="C33" s="3">
-        <v>12.78</v>
+        <v>5.69</v>
       </c>
       <c r="D33" s="4">
-        <v>0.2434869739478958</v>
+        <v>0.09218436873747494</v>
       </c>
       <c r="E33" s="3">
-        <v>0.9243</v>
+        <v>0.9169</v>
       </c>
       <c r="F33" s="4">
-        <v>0.09418837675350701</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="G33" s="3">
-        <v>0.6403</v>
+        <v>2.24</v>
       </c>
       <c r="H33" s="4">
-        <v>0.08016032064128258</v>
+        <v>0.4008016032064128</v>
       </c>
       <c r="I33" s="3">
-        <v>5.971572704604052</v>
+        <v>3.996052364399643</v>
       </c>
       <c r="J33" s="4">
-        <v>0.1182364729458918</v>
+        <v>0.0561122244488978</v>
       </c>
       <c r="K33" s="3">
-        <v>3.123857397495183</v>
+        <v>2.2704578632439</v>
       </c>
       <c r="L33" s="4">
-        <v>0.2284569138276553</v>
+        <v>0.1282565130260521</v>
       </c>
       <c r="M33" s="4">
-        <v>0.1529058116232465</v>
+        <v>0.1535070140280561</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1956,40 +1956,40 @@
         <v>45</v>
       </c>
       <c r="B34" s="2">
-        <v>93.56</v>
+        <v>50.88</v>
       </c>
       <c r="C34" s="3">
-        <v>5.67</v>
+        <v>22.41</v>
       </c>
       <c r="D34" s="4">
-        <v>0.09018036072144289</v>
+        <v>0.5350701402805611</v>
       </c>
       <c r="E34" s="3">
-        <v>1.64</v>
+        <v>0.0587</v>
       </c>
       <c r="F34" s="4">
-        <v>0.2214428857715431</v>
+        <v>0.07214428857715431</v>
       </c>
       <c r="G34" s="3">
-        <v>0.95</v>
+        <v>0.0723</v>
       </c>
       <c r="H34" s="4">
-        <v>0.1422845691382766</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="I34" s="3">
-        <v>4.419433416712407</v>
+        <v>4.322004762898331</v>
       </c>
       <c r="J34" s="4">
-        <v>0.07414829659318638</v>
+        <v>0.06412825651302606</v>
       </c>
       <c r="K34" s="3">
-        <v>3.219373446368561</v>
+        <v>1.904726575178333</v>
       </c>
       <c r="L34" s="4">
-        <v>0.2384769539078156</v>
+        <v>0.1022044088176353</v>
       </c>
       <c r="M34" s="4">
-        <v>0.1533066132264529</v>
+        <v>0.1551102204408818</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1997,40 +1997,40 @@
         <v>46</v>
       </c>
       <c r="B35" s="2">
-        <v>185.865</v>
+        <v>37.17</v>
       </c>
       <c r="C35" s="3">
-        <v>14.54</v>
+        <v>12.82</v>
       </c>
       <c r="D35" s="4">
-        <v>0.3006012024048096</v>
+        <v>0.2424849699398798</v>
       </c>
       <c r="E35" s="3">
-        <v>1.9</v>
+        <v>0.9752</v>
       </c>
       <c r="F35" s="4">
-        <v>0.2885771543086172</v>
+        <v>0.09619238476953909</v>
       </c>
       <c r="G35" s="3">
-        <v>0.4863</v>
+        <v>0.6755</v>
       </c>
       <c r="H35" s="4">
-        <v>0.05811623246492986</v>
+        <v>0.08617234468937877</v>
       </c>
       <c r="I35" s="3">
-        <v>6.177663465465163</v>
+        <v>6.198549342541437</v>
       </c>
       <c r="J35" s="4">
-        <v>0.1302605210420842</v>
+        <v>0.1222444889779559</v>
       </c>
       <c r="K35" s="3">
-        <v>0.6520980065999936</v>
+        <v>3.242593731213873</v>
       </c>
       <c r="L35" s="4">
-        <v>0.01402805611222445</v>
+        <v>0.2344689378757515</v>
       </c>
       <c r="M35" s="4">
-        <v>0.1583166332665331</v>
+        <v>0.156312625250501</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2038,40 +2038,40 @@
         <v>47</v>
       </c>
       <c r="B36" s="2">
-        <v>50.88</v>
+        <v>185.77</v>
       </c>
       <c r="C36" s="3">
-        <v>22.41</v>
+        <v>14.54</v>
       </c>
       <c r="D36" s="4">
-        <v>0.5561122244488979</v>
+        <v>0.3006012024048096</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0576</v>
+        <v>1.94</v>
       </c>
       <c r="F36" s="4">
-        <v>0.07214428857715431</v>
+        <v>0.2895791583166333</v>
       </c>
       <c r="G36" s="3">
-        <v>0.07099999999999999</v>
+        <v>0.4983</v>
       </c>
       <c r="H36" s="4">
-        <v>0.002004008016032064</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="I36" s="3">
-        <v>4.312894378477491</v>
+        <v>6.291765676399517</v>
       </c>
       <c r="J36" s="4">
-        <v>0.06412825651302606</v>
+        <v>0.1302605210420842</v>
       </c>
       <c r="K36" s="3">
-        <v>1.900711588553277</v>
+        <v>0.6641423377156157</v>
       </c>
       <c r="L36" s="4">
-        <v>0.1042084168336673</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="M36" s="4">
-        <v>0.1597194388777555</v>
+        <v>0.1585170340681363</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2079,40 +2079,40 @@
         <v>48</v>
       </c>
       <c r="B37" s="2">
-        <v>24.23</v>
+        <v>19.17</v>
       </c>
       <c r="C37" s="3">
-        <v>4.92</v>
+        <v>9.59</v>
       </c>
       <c r="D37" s="4">
-        <v>0.07014028056112225</v>
+        <v>0.1523046092184369</v>
       </c>
       <c r="E37" s="3">
-        <v>1.47</v>
+        <v>0.585</v>
       </c>
       <c r="F37" s="4">
-        <v>0.1853707414829659</v>
+        <v>0.07815631262525051</v>
       </c>
       <c r="G37" s="3">
-        <v>2.07</v>
+        <v>1.37</v>
       </c>
       <c r="H37" s="4">
-        <v>0.3827655310621242</v>
+        <v>0.2364729458917836</v>
       </c>
       <c r="I37" s="3">
-        <v>2.97777513859224</v>
+        <v>8.208933741571091</v>
       </c>
       <c r="J37" s="4">
-        <v>0.02605210420841683</v>
+        <v>0.2104208416833667</v>
       </c>
       <c r="K37" s="3">
-        <v>2.238515497444931</v>
+        <v>2.236386335944982</v>
       </c>
       <c r="L37" s="4">
-        <v>0.1362725450901804</v>
+        <v>0.124248496993988</v>
       </c>
       <c r="M37" s="4">
-        <v>0.1601202404809619</v>
+        <v>0.1603206412825652</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2120,40 +2120,40 @@
         <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>19.175</v>
+        <v>24.26</v>
       </c>
       <c r="C38" s="3">
-        <v>9.59</v>
+        <v>4.93</v>
       </c>
       <c r="D38" s="4">
-        <v>0.1543086172344689</v>
+        <v>0.07014028056112225</v>
       </c>
       <c r="E38" s="3">
-        <v>0.57</v>
+        <v>1.51</v>
       </c>
       <c r="F38" s="4">
-        <v>0.07815631262525051</v>
+        <v>0.187374749498998</v>
       </c>
       <c r="G38" s="3">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="H38" s="4">
-        <v>0.2364729458917836</v>
+        <v>0.3837675350701403</v>
       </c>
       <c r="I38" s="3">
-        <v>8.080500534263155</v>
+        <v>3.046569674404545</v>
       </c>
       <c r="J38" s="4">
-        <v>0.2144288577154309</v>
+        <v>0.02605210420841683</v>
       </c>
       <c r="K38" s="3">
-        <v>2.201396862409521</v>
+        <v>2.290231166824917</v>
       </c>
       <c r="L38" s="4">
-        <v>0.1302605210420842</v>
+        <v>0.1362725450901804</v>
       </c>
       <c r="M38" s="4">
-        <v>0.1627254509018036</v>
+        <v>0.1607214428857716</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2161,40 +2161,40 @@
         <v>50</v>
       </c>
       <c r="B39" s="2">
-        <v>347.46</v>
+        <v>348.08</v>
       </c>
       <c r="C39" s="3">
-        <v>9.27</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D39" s="4">
-        <v>0.1482965931863728</v>
+        <v>0.1462925851703407</v>
       </c>
       <c r="E39" s="3">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="F39" s="4">
-        <v>0.1082164328657315</v>
+        <v>0.1062124248496994</v>
       </c>
       <c r="G39" s="3">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H39" s="4">
-        <v>0.3316633266533067</v>
+        <v>0.3266533066132265</v>
       </c>
       <c r="I39" s="3">
-        <v>6.063917589779653</v>
+        <v>6.140122279054019</v>
       </c>
       <c r="J39" s="4">
-        <v>0.1222444889779559</v>
+        <v>0.1202404809619238</v>
       </c>
       <c r="K39" s="3">
-        <v>1.954877174229193</v>
+        <v>1.97944393415396</v>
       </c>
       <c r="L39" s="4">
         <v>0.1062124248496994</v>
       </c>
       <c r="M39" s="4">
-        <v>0.1633266533066133</v>
+        <v>0.161122244488978</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2202,7 +2202,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="2">
-        <v>36.675</v>
+        <v>36.64</v>
       </c>
       <c r="C40" s="3">
         <v>6.79</v>
@@ -2211,31 +2211,31 @@
         <v>0.1102204408817635</v>
       </c>
       <c r="E40" s="3">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="F40" s="4">
-        <v>0.1603206412825652</v>
+        <v>0.155310621242485</v>
       </c>
       <c r="G40" s="3">
-        <v>0.6886</v>
+        <v>0.697</v>
       </c>
       <c r="H40" s="4">
         <v>0.09218436873747494</v>
       </c>
       <c r="I40" s="3">
-        <v>7.47693194952919</v>
+        <v>7.535875378531073</v>
       </c>
       <c r="J40" s="4">
-        <v>0.1783567134268537</v>
+        <v>0.1803607214428858</v>
       </c>
       <c r="K40" s="3">
-        <v>3.911577207093596</v>
+        <v>3.942413621674877</v>
       </c>
       <c r="L40" s="4">
-        <v>0.2885771543086172</v>
+        <v>0.282565130260521</v>
       </c>
       <c r="M40" s="4">
-        <v>0.1659318637274549</v>
+        <v>0.1641282565130261</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2243,40 +2243,40 @@
         <v>52</v>
       </c>
       <c r="B41" s="2">
-        <v>87.39</v>
+        <v>29.15</v>
       </c>
       <c r="C41" s="3">
-        <v>4.3</v>
+        <v>7.36</v>
       </c>
       <c r="D41" s="4">
-        <v>0.05811623246492986</v>
+        <v>0.1202404809619238</v>
       </c>
       <c r="E41" s="3">
-        <v>2.19</v>
+        <v>-6.96</v>
       </c>
       <c r="F41" s="4">
-        <v>0.3687374749498998</v>
+        <v>0.06012024048096192</v>
       </c>
       <c r="G41" s="3">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="H41" s="4">
-        <v>0.2384769539078156</v>
+        <v>0.187374749498998</v>
       </c>
       <c r="I41" s="3">
-        <v>5.332570799028976</v>
+        <v>7.882242565371024</v>
       </c>
       <c r="J41" s="4">
-        <v>0.1022044088176353</v>
+        <v>0.1923847695390782</v>
       </c>
       <c r="K41" s="3">
-        <v>1.341404799979212</v>
+        <v>3.910524047583271</v>
       </c>
       <c r="L41" s="4">
-        <v>0.06412825651302606</v>
+        <v>0.2765531062124248</v>
       </c>
       <c r="M41" s="4">
-        <v>0.1663326653306613</v>
+        <v>0.1673346693386774</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2284,40 +2284,40 @@
         <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>29.14</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="C42" s="3">
-        <v>7.36</v>
+        <v>4.3</v>
       </c>
       <c r="D42" s="4">
-        <v>0.1202404809619238</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="E42" s="3">
-        <v>-6.88</v>
+        <v>2.27</v>
       </c>
       <c r="F42" s="4">
-        <v>0.0591182364729459</v>
+        <v>0.376753507014028</v>
       </c>
       <c r="G42" s="3">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="H42" s="4">
-        <v>0.1943887775551102</v>
+        <v>0.2394789579158317</v>
       </c>
       <c r="I42" s="3">
-        <v>7.842437938414942</v>
+        <v>5.52656288750581</v>
       </c>
       <c r="J42" s="4">
-        <v>0.2004008016032064</v>
+        <v>0.1042084168336673</v>
       </c>
       <c r="K42" s="3">
-        <v>3.890776247433008</v>
+        <v>1.390203386711188</v>
       </c>
       <c r="L42" s="4">
-        <v>0.282565130260521</v>
+        <v>0.07014028056112225</v>
       </c>
       <c r="M42" s="4">
-        <v>0.1713426853707415</v>
+        <v>0.1697394789579158</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2325,40 +2325,40 @@
         <v>54</v>
       </c>
       <c r="B43" s="2">
-        <v>245.325</v>
+        <v>42.8</v>
       </c>
       <c r="C43" s="3">
-        <v>9.109999999999999</v>
+        <v>11.15</v>
       </c>
       <c r="D43" s="4">
-        <v>0.1412825651302605</v>
+        <v>0.1963927855711423</v>
       </c>
       <c r="E43" s="3">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="F43" s="4">
-        <v>0.125250501002004</v>
+        <v>0.1012024048096192</v>
       </c>
       <c r="G43" s="3">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H43" s="4">
-        <v>0.3787575150300602</v>
+        <v>0.343687374749499</v>
       </c>
       <c r="I43" s="3">
-        <v>5.269238969290369</v>
+        <v>5.789251728160164</v>
       </c>
       <c r="J43" s="4">
-        <v>0.09819639278557114</v>
+        <v>0.1122244488977956</v>
       </c>
       <c r="K43" s="3">
-        <v>2.160207695207529</v>
+        <v>2.01668122213429</v>
       </c>
       <c r="L43" s="4">
-        <v>0.124248496993988</v>
+        <v>0.1082164328657315</v>
       </c>
       <c r="M43" s="4">
-        <v>0.1735470941883768</v>
+        <v>0.1723446893787575</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2366,40 +2366,40 @@
         <v>55</v>
       </c>
       <c r="B44" s="2">
-        <v>26.565</v>
+        <v>254.52</v>
       </c>
       <c r="C44" s="3">
-        <v>5.15</v>
+        <v>14.3</v>
       </c>
       <c r="D44" s="4">
-        <v>0.07214428857715431</v>
+        <v>0.2885771543086172</v>
       </c>
       <c r="E44" s="3">
-        <v>1.47</v>
+        <v>-21.35</v>
       </c>
       <c r="F44" s="4">
-        <v>0.1853707414829659</v>
+        <v>0.03206412825651303</v>
       </c>
       <c r="G44" s="3">
-        <v>2.14</v>
+        <v>1.2</v>
       </c>
       <c r="H44" s="4">
-        <v>0.3957915831663327</v>
+        <v>0.1953907815631263</v>
       </c>
       <c r="I44" s="3">
-        <v>3.341621367901662</v>
+        <v>9.027835381241173</v>
       </c>
       <c r="J44" s="4">
-        <v>0.03607214428857716</v>
+        <v>0.2565130260521042</v>
       </c>
       <c r="K44" s="3">
-        <v>2.755740294260423</v>
+        <v>1.817191546555184</v>
       </c>
       <c r="L44" s="4">
-        <v>0.1843687374749499</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="M44" s="4">
-        <v>0.174749498997996</v>
+        <v>0.1741482965931864</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2407,40 +2407,40 @@
         <v>56</v>
       </c>
       <c r="B45" s="2">
-        <v>42.725</v>
+        <v>110.53</v>
       </c>
       <c r="C45" s="3">
-        <v>11.13</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D45" s="4">
-        <v>0.1973947895791583</v>
+        <v>0.1382765531062124</v>
       </c>
       <c r="E45" s="3">
-        <v>1.04</v>
+        <v>2.45</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1022044088176353</v>
+        <v>0.4088176352705411</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="H45" s="4">
-        <v>0.3557114228456914</v>
+        <v>0.1843687374749499</v>
       </c>
       <c r="I45" s="3">
-        <v>5.73785182964751</v>
+        <v>4.869121908471487</v>
       </c>
       <c r="J45" s="4">
-        <v>0.1122244488977956</v>
+        <v>0.08416833667334669</v>
       </c>
       <c r="K45" s="3">
-        <v>1.99877610848275</v>
+        <v>1.208449017424513</v>
       </c>
       <c r="L45" s="4">
-        <v>0.1082164328657315</v>
+        <v>0.0561122244488978</v>
       </c>
       <c r="M45" s="4">
-        <v>0.1751503006012024</v>
+        <v>0.1743486973947896</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2448,40 +2448,40 @@
         <v>57</v>
       </c>
       <c r="B46" s="2">
-        <v>110.44</v>
+        <v>26.6</v>
       </c>
       <c r="C46" s="3">
-        <v>9.029999999999999</v>
+        <v>5.16</v>
       </c>
       <c r="D46" s="4">
-        <v>0.1382765531062124</v>
+        <v>0.07214428857715431</v>
       </c>
       <c r="E46" s="3">
-        <v>2.42</v>
+        <v>1.51</v>
       </c>
       <c r="F46" s="4">
-        <v>0.4128256513026052</v>
+        <v>0.187374749498998</v>
       </c>
       <c r="G46" s="3">
-        <v>1.16</v>
+        <v>2.2</v>
       </c>
       <c r="H46" s="4">
-        <v>0.1893787575150301</v>
+        <v>0.3947895791583166</v>
       </c>
       <c r="I46" s="3">
-        <v>4.812830192366238</v>
+        <v>3.413054306959834</v>
       </c>
       <c r="J46" s="4">
-        <v>0.08216432865731463</v>
+        <v>0.03807615230460922</v>
       </c>
       <c r="K46" s="3">
-        <v>1.194478188536829</v>
+        <v>2.81464901156482</v>
       </c>
       <c r="L46" s="4">
-        <v>0.0561122244488978</v>
+        <v>0.1823647294589178</v>
       </c>
       <c r="M46" s="4">
-        <v>0.175751503006012</v>
+        <v>0.1749498997995992</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2489,40 +2489,40 @@
         <v>58</v>
       </c>
       <c r="B47" s="2">
-        <v>51.295</v>
+        <v>245.79</v>
       </c>
       <c r="C47" s="3">
-        <v>5.76</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D47" s="4">
-        <v>0.09418837675350701</v>
+        <v>0.1422845691382766</v>
       </c>
       <c r="E47" s="3">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="F47" s="4">
-        <v>0.2464929859719439</v>
+        <v>0.1292585170340681</v>
       </c>
       <c r="G47" s="3">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="H47" s="4">
-        <v>0.3597194388777555</v>
+        <v>0.3887775551102204</v>
       </c>
       <c r="I47" s="3">
-        <v>4.350993612256924</v>
+        <v>5.568280004645599</v>
       </c>
       <c r="J47" s="4">
-        <v>0.06813627254509019</v>
+        <v>0.1082164328657315</v>
       </c>
       <c r="K47" s="3">
-        <v>2.072308773505473</v>
+        <v>2.282804288287116</v>
       </c>
       <c r="L47" s="4">
-        <v>0.1142284569138277</v>
+        <v>0.1322645290581162</v>
       </c>
       <c r="M47" s="4">
-        <v>0.1765531062124249</v>
+        <v>0.1801603206412826</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2530,40 +2530,40 @@
         <v>59</v>
       </c>
       <c r="B48" s="2">
-        <v>254.76</v>
+        <v>109.74</v>
       </c>
       <c r="C48" s="3">
-        <v>14.31</v>
+        <v>-605.96</v>
       </c>
       <c r="D48" s="4">
-        <v>0.2925851703406814</v>
+        <v>0.004008016032064129</v>
       </c>
       <c r="E48" s="3">
-        <v>-21</v>
+        <v>1.83</v>
       </c>
       <c r="F48" s="4">
-        <v>0.03206412825651303</v>
+        <v>0.2625250501002004</v>
       </c>
       <c r="G48" s="3">
-        <v>1.18</v>
+        <v>2.55</v>
       </c>
       <c r="H48" s="4">
-        <v>0.1983967935871744</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="I48" s="3">
-        <v>8.928718950735233</v>
+        <v>-594.8071020689655</v>
       </c>
       <c r="J48" s="4">
-        <v>0.2605210420841684</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="K48" s="3">
-        <v>1.797240635618729</v>
+        <v>2.549424469405853</v>
       </c>
       <c r="L48" s="4">
-        <v>0.1002004008016032</v>
+        <v>0.1603206412825652</v>
       </c>
       <c r="M48" s="4">
-        <v>0.1767535070140281</v>
+        <v>0.1801603206412826</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2571,40 +2571,40 @@
         <v>60</v>
       </c>
       <c r="B49" s="2">
-        <v>109.63</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C49" s="3">
-        <v>-605.36</v>
+        <v>13.67</v>
       </c>
       <c r="D49" s="4">
-        <v>0.004008016032064129</v>
+        <v>0.2705410821643287</v>
       </c>
       <c r="E49" s="3">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="F49" s="4">
-        <v>0.2625250501002004</v>
+        <v>0.3046092184368738</v>
       </c>
       <c r="G49" s="3">
-        <v>2.48</v>
+        <v>1.13</v>
       </c>
       <c r="H49" s="4">
-        <v>0.4729458917835672</v>
+        <v>0.1743486973947896</v>
       </c>
       <c r="I49" s="3">
-        <v>-578.167246</v>
+        <v>5.840820455666744</v>
       </c>
       <c r="J49" s="4">
-        <v>0.002004008016032064</v>
+        <v>0.1142284569138277</v>
       </c>
       <c r="K49" s="3">
-        <v>2.478103773869347</v>
+        <v>1.13247926622146</v>
       </c>
       <c r="L49" s="4">
-        <v>0.1583166332665331</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="M49" s="4">
-        <v>0.1799599198396794</v>
+        <v>0.1819639278557114</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2612,40 +2612,40 @@
         <v>61</v>
       </c>
       <c r="B50" s="2">
-        <v>78.88</v>
+        <v>31.75</v>
       </c>
       <c r="C50" s="3">
-        <v>13.67</v>
+        <v>16.12</v>
       </c>
       <c r="D50" s="4">
-        <v>0.2725450901803608</v>
+        <v>0.3507014028056112</v>
       </c>
       <c r="E50" s="3">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="F50" s="4">
-        <v>0.3006012024048096</v>
+        <v>0.1723446893787575</v>
       </c>
       <c r="G50" s="3">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="H50" s="4">
-        <v>0.1773547094188377</v>
+        <v>0.1913827655310621</v>
       </c>
       <c r="I50" s="3">
-        <v>5.70608923597859</v>
+        <v>6.412371628792987</v>
       </c>
       <c r="J50" s="4">
-        <v>0.1102204408817635</v>
+        <v>0.1362725450901804</v>
       </c>
       <c r="K50" s="3">
-        <v>1.106356170336612</v>
+        <v>1.346865962113165</v>
       </c>
       <c r="L50" s="4">
-        <v>0.04609218436873747</v>
+        <v>0.06212424849699399</v>
       </c>
       <c r="M50" s="4">
-        <v>0.1813627254509018</v>
+        <v>0.1825651302605211</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2653,40 +2653,40 @@
         <v>62</v>
       </c>
       <c r="B51" s="2">
-        <v>31.765</v>
+        <v>128.59</v>
       </c>
       <c r="C51" s="3">
-        <v>16.12</v>
+        <v>21.83</v>
       </c>
       <c r="D51" s="4">
-        <v>0.3527054108216433</v>
+        <v>0.5110220440881763</v>
       </c>
       <c r="E51" s="3">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="F51" s="4">
-        <v>0.1743486973947896</v>
+        <v>0.2104208416833667</v>
       </c>
       <c r="G51" s="3">
-        <v>1.15</v>
+        <v>0.6647999999999999</v>
       </c>
       <c r="H51" s="4">
-        <v>0.1853707414829659</v>
+        <v>0.08416833667334669</v>
       </c>
       <c r="I51" s="3">
-        <v>6.251746788604181</v>
+        <v>5.058144185094185</v>
       </c>
       <c r="J51" s="4">
-        <v>0.1362725450901804</v>
+        <v>0.09218436873747494</v>
       </c>
       <c r="K51" s="3">
-        <v>1.313128034487643</v>
+        <v>0.6648067262621221</v>
       </c>
       <c r="L51" s="4">
-        <v>0.06212424849699399</v>
+        <v>0.01603206412825652</v>
       </c>
       <c r="M51" s="4">
-        <v>0.1821643286573146</v>
+        <v>0.1827655310621242</v>
       </c>
     </row>
   </sheetData>
